--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-05-unique-multiple-criteria.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-05-unique-multiple-criteria.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Advanced/Course Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Advanced Course Files\Instructor Files\Section 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{A819E7EA-F214-4F16-9B28-9D596BEA170B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C99BE91F-8267-4F58-9A22-15B9611E3DFD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F8116B-8FB2-46BA-8A6F-1491EB3F76CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6696" yWindow="912" windowWidth="14712" windowHeight="12180" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
   </bookViews>
   <sheets>
     <sheet name="Mutiple Criteria" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
   <si>
     <t>UK</t>
   </si>
@@ -88,6 +110,12 @@
   </si>
   <si>
     <t>South America</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Unique Countries</t>
   </si>
 </sst>
 </file>
@@ -151,7 +179,32 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -162,6 +215,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F214033F-DA1A-41A4-AFEF-CA150DFE0021}" name="Country_popu_Rigion" displayName="Country_popu_Rigion" ref="A3:C22" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A3:C22" xr:uid="{F214033F-DA1A-41A4-AFEF-CA150DFE0021}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D9D11A43-5249-4740-83F1-5CD9118C59AB}" name="Country"/>
+    <tableColumn id="2" xr3:uid="{B9C9FDD8-D117-45AE-9AE5-D84E639B8B71}" name="Population (mil)"/>
+    <tableColumn id="3" xr3:uid="{327C1378-7D7F-4C49-B61D-A3D00AFF7940}" name="Region"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,35 +484,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E86906-9D4F-417C-B01C-B523EEC5EA67}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.59765625" customWidth="1"/>
-    <col min="2" max="2" width="16.09765625" customWidth="1"/>
+    <col min="2" max="2" width="16.296875" customWidth="1"/>
     <col min="3" max="3" width="14.69921875" customWidth="1"/>
     <col min="4" max="4" width="13.296875" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.19921875" customWidth="1"/>
-    <col min="10" max="11" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -466,8 +535,17 @@
       <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -477,8 +555,28 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E4" t="str" cm="1">
+        <f t="array" ref="E4:G13">_xlfn.UNIQUE(Country_popu_Rigion[],FALSE,FALSE)</f>
+        <v>UK</v>
+      </c>
+      <c r="F4">
+        <v>67.22</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Europe</v>
+      </c>
+      <c r="I4" t="str" cm="1">
+        <f t="array" ref="I4:K7">_xlfn.UNIQUE(Country_popu_Rigion[],FALSE,TRUE)</f>
+        <v>Australia</v>
+      </c>
+      <c r="J4">
+        <v>25.69</v>
+      </c>
+      <c r="K4" t="str">
+        <v>Australasia</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -488,8 +586,26 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E5" t="str">
+        <v>USA</v>
+      </c>
+      <c r="F5">
+        <v>329.5</v>
+      </c>
+      <c r="G5" t="str">
+        <v>North America</v>
+      </c>
+      <c r="I5" t="str">
+        <v>New Zealand</v>
+      </c>
+      <c r="J5">
+        <v>5.08</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Australasia</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -499,8 +615,26 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E6" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="F6">
+        <v>83.24</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Europe</v>
+      </c>
+      <c r="I6" t="str">
+        <v>South Africa</v>
+      </c>
+      <c r="J6">
+        <v>59.31</v>
+      </c>
+      <c r="K6" t="str">
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -510,8 +644,26 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E7" t="str">
+        <v>France</v>
+      </c>
+      <c r="F7">
+        <v>67.39</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Europe</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Brazil</v>
+      </c>
+      <c r="J7">
+        <v>212.6</v>
+      </c>
+      <c r="K7" t="str">
+        <v>South America</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -521,8 +673,17 @@
       <c r="C8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E8" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="F8">
+        <v>38.01</v>
+      </c>
+      <c r="G8" t="str">
+        <v>North America</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -532,8 +693,17 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E9" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="F9">
+        <v>25.69</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Australasia</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -543,8 +713,17 @@
       <c r="C10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E10" t="str">
+        <v>New Zealand</v>
+      </c>
+      <c r="F10">
+        <v>5.08</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Australasia</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -554,8 +733,17 @@
       <c r="C11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E11" t="str">
+        <v>South Africa</v>
+      </c>
+      <c r="F11">
+        <v>59.31</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -565,8 +753,17 @@
       <c r="C12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E12" t="str">
+        <v>Brazil</v>
+      </c>
+      <c r="F12">
+        <v>212.6</v>
+      </c>
+      <c r="G12" t="str">
+        <v>South America</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -576,8 +773,17 @@
       <c r="C13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E13" t="str">
+        <v>Spain</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -588,7 +794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -599,7 +805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -654,8 +860,21 @@
         <v>13</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>